--- a/steamcase/user/userCancelCollectioncase.xlsx
+++ b/steamcase/user/userCancelCollectioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95E4AF29-79B4-4A4D-B2DD-B73DF7836D61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A13E6F57-F88F-40E5-B117-8AFB0E5130FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取视频播放的鉴权信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"currentPage":1
 "pageSize":10
 "resourceTypeId":1
@@ -78,11 +74,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/resource-service/resource/collect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preInterfaceUserCollection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resource-service/resource/cancelCollect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消收藏一个课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,16 +511,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
